--- a/DataAnalysis Game/Assets/Data/FirstStructure.xlsx
+++ b/DataAnalysis Game/Assets/Data/FirstStructure.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebastiandv\Documents\GitHub\VisualDataAnalysis\DataAnalysis Game\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6AB0EB27-C720-4BBF-B103-2532AA83510C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BA10F72-2C5C-4296-81D7-5D9C2C0841F4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11775" activeTab="2" xr2:uid="{65841321-C01D-4128-B71B-F023DD2E2872}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11775" firstSheet="4" activeTab="6" xr2:uid="{65841321-C01D-4128-B71B-F023DD2E2872}"/>
   </bookViews>
   <sheets>
     <sheet name="Session" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>session_id</t>
   </si>
@@ -103,6 +103,12 @@
   </si>
   <si>
     <t>monsterY</t>
+  </si>
+  <si>
+    <t>Spitter</t>
+  </si>
+  <si>
+    <t>Chomper</t>
   </si>
 </sst>
 </file>
@@ -520,8 +526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B75B817-A2AA-43E9-A074-AFE341679917}">
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -691,10 +697,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F18E752F-435E-4A17-85DB-59C8661A592A}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -717,6 +723,126 @@
         <v>18</v>
       </c>
     </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DataAnalysis Game/Assets/Data/FirstStructure.xlsx
+++ b/DataAnalysis Game/Assets/Data/FirstStructure.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20380"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebastiandv\Documents\GitHub\VisualDataAnalysis\DataAnalysis Game\Assets\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\Github\VisualDataAnalysis\DataAnalysis Game\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BA10F72-2C5C-4296-81D7-5D9C2C0841F4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EB96D55-5304-4A7A-B5AA-15E7A7533C96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11775" firstSheet="4" activeTab="6" xr2:uid="{65841321-C01D-4128-B71B-F023DD2E2872}"/>
+    <workbookView xWindow="19320" yWindow="4215" windowWidth="18750" windowHeight="14100" xr2:uid="{65841321-C01D-4128-B71B-F023DD2E2872}"/>
   </bookViews>
   <sheets>
     <sheet name="Session" sheetId="1" r:id="rId1"/>
     <sheet name="Users" sheetId="7" r:id="rId2"/>
     <sheet name="Event_Hit" sheetId="2" r:id="rId3"/>
-    <sheet name="Event_Kill" sheetId="3" r:id="rId4"/>
-    <sheet name="Event_Dead" sheetId="4" r:id="rId5"/>
+    <sheet name="EventMonsterDead" sheetId="3" r:id="rId4"/>
+    <sheet name="EventPlayerDead" sheetId="4" r:id="rId5"/>
     <sheet name="Event_update" sheetId="8" r:id="rId6"/>
     <sheet name="Monsters" sheetId="10" r:id="rId7"/>
   </sheets>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="32">
   <si>
     <t>session_id</t>
   </si>
@@ -109,6 +109,24 @@
   </si>
   <si>
     <t>Chomper</t>
+  </si>
+  <si>
+    <t>monsterPositionY</t>
+  </si>
+  <si>
+    <t>monsterPositionX</t>
+  </si>
+  <si>
+    <t>playerId</t>
+  </si>
+  <si>
+    <t>playerPositionX</t>
+  </si>
+  <si>
+    <t>playerPositionY</t>
+  </si>
+  <si>
+    <t>playerPositionZ</t>
   </si>
 </sst>
 </file>
@@ -164,7 +182,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -462,11 +480,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{927F525E-279E-4C05-8A3A-C1405323FC2A}">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
@@ -501,7 +519,7 @@
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -530,7 +548,7 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.28515625" customWidth="1"/>
@@ -581,73 +599,76 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F5D77AA-ABD7-4107-A898-FD0A23DE0917}">
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="E1" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="F1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F5D77AA-ABD7-4107-A898-FD0A23DE0917}">
-  <dimension ref="A1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -664,7 +685,7 @@
       <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
@@ -699,11 +720,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F18E752F-435E-4A17-85DB-59C8661A592A}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>

--- a/DataAnalysis Game/Assets/Data/FirstStructure.xlsx
+++ b/DataAnalysis Game/Assets/Data/FirstStructure.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\Github\VisualDataAnalysis\DataAnalysis Game\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EB96D55-5304-4A7A-B5AA-15E7A7533C96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{772EF7FE-18E8-41A5-9D30-0846AC9E7019}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19320" yWindow="4215" windowWidth="18750" windowHeight="14100" xr2:uid="{65841321-C01D-4128-B71B-F023DD2E2872}"/>
+    <workbookView xWindow="38280" yWindow="2925" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{65841321-C01D-4128-B71B-F023DD2E2872}"/>
   </bookViews>
   <sheets>
     <sheet name="Session" sheetId="1" r:id="rId1"/>
     <sheet name="Users" sheetId="7" r:id="rId2"/>
-    <sheet name="Event_Hit" sheetId="2" r:id="rId3"/>
+    <sheet name="EventPlayerHit" sheetId="2" r:id="rId3"/>
     <sheet name="EventMonsterDead" sheetId="3" r:id="rId4"/>
     <sheet name="EventPlayerDead" sheetId="4" r:id="rId5"/>
-    <sheet name="Event_update" sheetId="8" r:id="rId6"/>
+    <sheet name="EventTrackPlayerPosition" sheetId="8" r:id="rId6"/>
     <sheet name="Monsters" sheetId="10" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="33">
   <si>
     <t>session_id</t>
   </si>
@@ -127,6 +127,9 @@
   </si>
   <si>
     <t>playerPositionZ</t>
+  </si>
+  <si>
+    <t>player_id</t>
   </si>
 </sst>
 </file>
@@ -480,7 +483,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{927F525E-279E-4C05-8A3A-C1405323FC2A}">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -545,7 +548,7 @@
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -679,22 +682,23 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7831E975-0C9A-44D6-9395-D97FDBF0FBA0}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -702,12 +706,15 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>15</v>
       </c>
     </row>
